--- a/team_specific_matrix/Cal St. Fullerton_A.xlsx
+++ b/team_specific_matrix/Cal St. Fullerton_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1982758620689655</v>
+        <v>0.2035087719298246</v>
       </c>
       <c r="C2">
-        <v>0.5517241379310345</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01293103448275862</v>
+        <v>0.01403508771929825</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1379310344827586</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09913793103448276</v>
+        <v>0.112280701754386</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007518796992481203</v>
+        <v>0.00625</v>
       </c>
       <c r="C3">
-        <v>0.03759398496240601</v>
+        <v>0.04375</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02255639097744361</v>
+        <v>0.01875</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7593984962406015</v>
+        <v>0.75</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1729323308270677</v>
+        <v>0.18125</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02857142857142857</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6857142857142857</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2857142857142857</v>
+        <v>0.3023255813953488</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.2</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.8</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04827586206896552</v>
+        <v>0.04597701149425287</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.006896551724137931</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="F6">
-        <v>0.01379310344827586</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3241379310344827</v>
+        <v>0.3218390804597701</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02068965517241379</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1517241379310345</v>
+        <v>0.1494252873563219</v>
       </c>
       <c r="R6">
-        <v>0.06896551724137931</v>
+        <v>0.08045977011494253</v>
       </c>
       <c r="S6">
-        <v>0.3655172413793104</v>
+        <v>0.3390804597701149</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1328671328671329</v>
+        <v>0.1125</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01398601398601399</v>
+        <v>0.01875</v>
       </c>
       <c r="E7">
-        <v>0.006993006993006993</v>
+        <v>0.00625</v>
       </c>
       <c r="F7">
-        <v>0.05594405594405594</v>
+        <v>0.05</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1958041958041958</v>
+        <v>0.15625</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01398601398601399</v>
+        <v>0.01875</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1398601398601399</v>
+        <v>0.14375</v>
       </c>
       <c r="R7">
-        <v>0.06293706293706294</v>
+        <v>0.06875000000000001</v>
       </c>
       <c r="S7">
-        <v>0.3776223776223776</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1073825503355705</v>
+        <v>0.1026392961876833</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01342281879194631</v>
+        <v>0.01173020527859238</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.002932551319648094</v>
       </c>
       <c r="F8">
-        <v>0.05704697986577181</v>
+        <v>0.04985337243401759</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1006711409395973</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03691275167785235</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1442953020134228</v>
+        <v>0.1642228739002932</v>
       </c>
       <c r="R8">
-        <v>0.0738255033557047</v>
+        <v>0.07917888563049853</v>
       </c>
       <c r="S8">
-        <v>0.4664429530201342</v>
+        <v>0.4662756598240469</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1417322834645669</v>
+        <v>0.1096774193548387</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.007874015748031496</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="E9">
-        <v>0.01574803149606299</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="F9">
-        <v>0.03937007874015748</v>
+        <v>0.05806451612903226</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1338582677165354</v>
+        <v>0.1161290322580645</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02362204724409449</v>
+        <v>0.01935483870967742</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1102362204724409</v>
+        <v>0.1096774193548387</v>
       </c>
       <c r="R9">
-        <v>0.05511811023622047</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="S9">
-        <v>0.4724409448818898</v>
+        <v>0.5032258064516129</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1558282208588957</v>
+        <v>0.1463178294573644</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03558282208588957</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="E10">
-        <v>0.001226993865030675</v>
+        <v>0.001937984496124031</v>
       </c>
       <c r="F10">
-        <v>0.06993865030674846</v>
+        <v>0.07170542635658915</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09815950920245399</v>
+        <v>0.1007751937984496</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0294478527607362</v>
+        <v>0.02616279069767442</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1766871165644172</v>
+        <v>0.1831395348837209</v>
       </c>
       <c r="R10">
-        <v>0.05889570552147239</v>
+        <v>0.06492248062015504</v>
       </c>
       <c r="S10">
-        <v>0.3742331288343558</v>
+        <v>0.3701550387596899</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.004629629629629629</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.162037037037037</v>
+        <v>0.1704545454545454</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09259259259259259</v>
+        <v>0.0946969696969697</v>
       </c>
       <c r="K11">
-        <v>0.1898148148148148</v>
+        <v>0.2045454545454546</v>
       </c>
       <c r="L11">
-        <v>0.5370370370370371</v>
+        <v>0.5189393939393939</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01388888888888889</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7164179104477612</v>
+        <v>0.7214285714285714</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1641791044776119</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="K12">
-        <v>0.01492537313432836</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="L12">
-        <v>0.02238805970149254</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.08208955223880597</v>
+        <v>0.06428571428571428</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5862068965517241</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2758620689655172</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1379310344827586</v>
+        <v>0.06060606060606061</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02380952380952381</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1428571428571428</v>
+        <v>0.1308411214953271</v>
       </c>
       <c r="I15">
-        <v>0.06547619047619048</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="J15">
-        <v>0.3214285714285715</v>
+        <v>0.3598130841121495</v>
       </c>
       <c r="K15">
-        <v>0.06547619047619048</v>
+        <v>0.07009345794392523</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005952380952380952</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04166666666666666</v>
+        <v>0.05607476635514019</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3333333333333333</v>
+        <v>0.294392523364486</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006578947368421052</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1184210526315789</v>
+        <v>0.1208791208791209</v>
       </c>
       <c r="I16">
-        <v>0.09210526315789473</v>
+        <v>0.09340659340659341</v>
       </c>
       <c r="J16">
-        <v>0.4210526315789473</v>
+        <v>0.4010989010989011</v>
       </c>
       <c r="K16">
-        <v>0.09210526315789473</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03289473684210526</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07236842105263158</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1644736842105263</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02892561983471074</v>
+        <v>0.02580645161290323</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1942148760330578</v>
+        <v>0.1806451612903226</v>
       </c>
       <c r="I17">
-        <v>0.09917355371900827</v>
+        <v>0.1096774193548387</v>
       </c>
       <c r="J17">
-        <v>0.3512396694214876</v>
+        <v>0.3709677419354839</v>
       </c>
       <c r="K17">
-        <v>0.1074380165289256</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01239669421487603</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06198347107438017</v>
+        <v>0.07096774193548387</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1446280991735537</v>
+        <v>0.1290322580645161</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.154639175257732</v>
+        <v>0.1317829457364341</v>
       </c>
       <c r="I18">
-        <v>0.09278350515463918</v>
+        <v>0.1085271317829457</v>
       </c>
       <c r="J18">
-        <v>0.4742268041237113</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="K18">
-        <v>0.1443298969072165</v>
+        <v>0.124031007751938</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04123711340206185</v>
+        <v>0.05426356589147287</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09278350515463918</v>
+        <v>0.09302325581395349</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02990033222591362</v>
+        <v>0.02398523985239853</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2081949058693245</v>
+        <v>0.202029520295203</v>
       </c>
       <c r="I19">
-        <v>0.07419712070874862</v>
+        <v>0.07103321033210332</v>
       </c>
       <c r="J19">
-        <v>0.3665559246954596</v>
+        <v>0.3809963099630996</v>
       </c>
       <c r="K19">
-        <v>0.1140642303433001</v>
+        <v>0.1171586715867159</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02104097452934662</v>
+        <v>0.01937269372693727</v>
       </c>
       <c r="N19">
-        <v>0.001107419712070875</v>
+        <v>0.0009225092250922509</v>
       </c>
       <c r="O19">
-        <v>0.07530454042081949</v>
+        <v>0.07933579335793357</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1096345514950166</v>
+        <v>0.1051660516605166</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Cal St. Fullerton_A.xlsx
+++ b/team_specific_matrix/Cal St. Fullerton_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2035087719298246</v>
+        <v>0.1980830670926517</v>
       </c>
       <c r="C2">
-        <v>0.5368421052631579</v>
+        <v>0.549520766773163</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01403508771929825</v>
+        <v>0.01277955271565495</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1333333333333333</v>
+        <v>0.1309904153354633</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.112280701754386</v>
+        <v>0.1086261980830671</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00625</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="C3">
-        <v>0.04375</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01875</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.75</v>
+        <v>0.7611111111111111</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.18125</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04651162790697674</v>
+        <v>0.0625</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6511627906976745</v>
+        <v>0.625</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3023255813953488</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04597701149425287</v>
+        <v>0.04639175257731959</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.005747126436781609</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="F6">
-        <v>0.03448275862068965</v>
+        <v>0.03092783505154639</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3218390804597701</v>
+        <v>0.3092783505154639</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02298850574712644</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1494252873563219</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="R6">
-        <v>0.08045977011494253</v>
+        <v>0.07216494845360824</v>
       </c>
       <c r="S6">
-        <v>0.3390804597701149</v>
+        <v>0.3505154639175257</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1125</v>
+        <v>0.1092896174863388</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01875</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="E7">
-        <v>0.00625</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="F7">
-        <v>0.05</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.15625</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01875</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.14375</v>
+        <v>0.1366120218579235</v>
       </c>
       <c r="R7">
-        <v>0.06875000000000001</v>
+        <v>0.07650273224043716</v>
       </c>
       <c r="S7">
-        <v>0.425</v>
+        <v>0.4207650273224044</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1026392961876833</v>
+        <v>0.09895833333333333</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01173020527859238</v>
+        <v>0.015625</v>
       </c>
       <c r="E8">
-        <v>0.002932551319648094</v>
+        <v>0.002604166666666667</v>
       </c>
       <c r="F8">
-        <v>0.04985337243401759</v>
+        <v>0.04427083333333334</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09090909090909091</v>
+        <v>0.09114583333333333</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03225806451612903</v>
+        <v>0.03385416666666666</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1642228739002932</v>
+        <v>0.15625</v>
       </c>
       <c r="R8">
-        <v>0.07917888563049853</v>
+        <v>0.08854166666666667</v>
       </c>
       <c r="S8">
-        <v>0.4662756598240469</v>
+        <v>0.46875</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1096774193548387</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006451612903225806</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="E9">
-        <v>0.01290322580645161</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="F9">
-        <v>0.05806451612903226</v>
+        <v>0.06470588235294118</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1161290322580645</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01935483870967742</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1096774193548387</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="R9">
-        <v>0.06451612903225806</v>
+        <v>0.06470588235294118</v>
       </c>
       <c r="S9">
-        <v>0.5032258064516129</v>
+        <v>0.4764705882352941</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1463178294573644</v>
+        <v>0.1417525773195876</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03488372093023256</v>
+        <v>0.03264604810996564</v>
       </c>
       <c r="E10">
-        <v>0.001937984496124031</v>
+        <v>0.001718213058419244</v>
       </c>
       <c r="F10">
-        <v>0.07170542635658915</v>
+        <v>0.07216494845360824</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1007751937984496</v>
+        <v>0.09450171821305842</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02616279069767442</v>
+        <v>0.02663230240549828</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1831395348837209</v>
+        <v>0.1898625429553265</v>
       </c>
       <c r="R10">
-        <v>0.06492248062015504</v>
+        <v>0.06701030927835051</v>
       </c>
       <c r="S10">
-        <v>0.3701550387596899</v>
+        <v>0.3737113402061856</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1704545454545454</v>
+        <v>0.1678321678321678</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0946969696969697</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K11">
-        <v>0.2045454545454546</v>
+        <v>0.1993006993006993</v>
       </c>
       <c r="L11">
-        <v>0.5189393939393939</v>
+        <v>0.5314685314685315</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01136363636363636</v>
+        <v>0.01048951048951049</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7214285714285714</v>
+        <v>0.7051282051282052</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1785714285714286</v>
+        <v>0.1987179487179487</v>
       </c>
       <c r="K12">
-        <v>0.007142857142857143</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="L12">
-        <v>0.02857142857142857</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.06428571428571428</v>
+        <v>0.0641025641025641</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5757575757575758</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3636363636363636</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06060606060606061</v>
+        <v>0.04444444444444445</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01869158878504673</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1308411214953271</v>
+        <v>0.134453781512605</v>
       </c>
       <c r="I15">
-        <v>0.06542056074766354</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J15">
-        <v>0.3598130841121495</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="K15">
-        <v>0.07009345794392523</v>
+        <v>0.06302521008403361</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004672897196261682</v>
+        <v>0.004201680672268907</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05607476635514019</v>
+        <v>0.06722689075630252</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.294392523364486</v>
+        <v>0.2983193277310924</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01098901098901099</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1208791208791209</v>
+        <v>0.1237623762376238</v>
       </c>
       <c r="I16">
-        <v>0.09340659340659341</v>
+        <v>0.0891089108910891</v>
       </c>
       <c r="J16">
-        <v>0.4010989010989011</v>
+        <v>0.405940594059406</v>
       </c>
       <c r="K16">
-        <v>0.1098901098901099</v>
+        <v>0.1089108910891089</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03846153846153846</v>
+        <v>0.0396039603960396</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07142857142857142</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1538461538461539</v>
+        <v>0.1435643564356436</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02580645161290323</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1806451612903226</v>
+        <v>0.1685393258426966</v>
       </c>
       <c r="I17">
-        <v>0.1096774193548387</v>
+        <v>0.1067415730337079</v>
       </c>
       <c r="J17">
-        <v>0.3709677419354839</v>
+        <v>0.3876404494382023</v>
       </c>
       <c r="K17">
-        <v>0.09677419354838709</v>
+        <v>0.09550561797752809</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01612903225806452</v>
+        <v>0.02528089887640449</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002808988764044944</v>
       </c>
       <c r="O17">
-        <v>0.07096774193548387</v>
+        <v>0.06460674157303371</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1290322580645161</v>
+        <v>0.1264044943820225</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1317829457364341</v>
+        <v>0.1390728476821192</v>
       </c>
       <c r="I18">
-        <v>0.1085271317829457</v>
+        <v>0.09271523178807947</v>
       </c>
       <c r="J18">
-        <v>0.4883720930232558</v>
+        <v>0.4834437086092715</v>
       </c>
       <c r="K18">
-        <v>0.124031007751938</v>
+        <v>0.1258278145695364</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05426356589147287</v>
+        <v>0.05298013245033113</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09302325581395349</v>
+        <v>0.09933774834437085</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02398523985239853</v>
+        <v>0.02289452166802943</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.202029520295203</v>
+        <v>0.2035977105478332</v>
       </c>
       <c r="I19">
-        <v>0.07103321033210332</v>
+        <v>0.07113654946852004</v>
       </c>
       <c r="J19">
-        <v>0.3809963099630996</v>
+        <v>0.3802125919869174</v>
       </c>
       <c r="K19">
-        <v>0.1171586715867159</v>
+        <v>0.1120196238757155</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01937269372693727</v>
+        <v>0.02207686017988553</v>
       </c>
       <c r="N19">
-        <v>0.0009225092250922509</v>
+        <v>0.0008176614881439084</v>
       </c>
       <c r="O19">
-        <v>0.07933579335793357</v>
+        <v>0.07686017988552739</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1051660516605166</v>
+        <v>0.1103843008994276</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Cal St. Fullerton_A.xlsx
+++ b/team_specific_matrix/Cal St. Fullerton_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1980830670926517</v>
+        <v>0.1994047619047619</v>
       </c>
       <c r="C2">
-        <v>0.549520766773163</v>
+        <v>0.5446428571428571</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01277955271565495</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1309904153354633</v>
+        <v>0.130952380952381</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1086261980830671</v>
+        <v>0.1130952380952381</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005555555555555556</v>
+        <v>0.01570680628272251</v>
       </c>
       <c r="C3">
-        <v>0.03888888888888889</v>
+        <v>0.03664921465968586</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01666666666666667</v>
+        <v>0.01570680628272251</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7611111111111111</v>
+        <v>0.7539267015706806</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1777777777777778</v>
+        <v>0.1780104712041885</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0625</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.625</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3125</v>
+        <v>0.3269230769230769</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04639175257731959</v>
+        <v>0.04784688995215311</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.005154639175257732</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="F6">
-        <v>0.03092783505154639</v>
+        <v>0.03827751196172249</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3092783505154639</v>
+        <v>0.2966507177033493</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02061855670103093</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1649484536082474</v>
+        <v>0.1674641148325359</v>
       </c>
       <c r="R6">
-        <v>0.07216494845360824</v>
+        <v>0.07177033492822966</v>
       </c>
       <c r="S6">
-        <v>0.3505154639175257</v>
+        <v>0.354066985645933</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1092896174863388</v>
+        <v>0.1256038647342995</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02185792349726776</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="E7">
-        <v>0.00546448087431694</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="F7">
-        <v>0.04918032786885246</v>
+        <v>0.04830917874396135</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1639344262295082</v>
+        <v>0.1594202898550725</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01639344262295082</v>
+        <v>0.02415458937198068</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1366120218579235</v>
+        <v>0.1400966183574879</v>
       </c>
       <c r="R7">
-        <v>0.07650273224043716</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="S7">
-        <v>0.4207650273224044</v>
+        <v>0.4057971014492754</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09895833333333333</v>
+        <v>0.1046228710462287</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.015625</v>
+        <v>0.0170316301703163</v>
       </c>
       <c r="E8">
-        <v>0.002604166666666667</v>
+        <v>0.0024330900243309</v>
       </c>
       <c r="F8">
-        <v>0.04427083333333334</v>
+        <v>0.04379562043795621</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09114583333333333</v>
+        <v>0.09002433090024331</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03385416666666666</v>
+        <v>0.0340632603406326</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.15625</v>
+        <v>0.1557177615571776</v>
       </c>
       <c r="R8">
-        <v>0.08854166666666667</v>
+        <v>0.09002433090024331</v>
       </c>
       <c r="S8">
-        <v>0.46875</v>
+        <v>0.462287104622871</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1176470588235294</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005882352941176471</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="E9">
-        <v>0.01176470588235294</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="F9">
-        <v>0.06470588235294118</v>
+        <v>0.05789473684210526</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1176470588235294</v>
+        <v>0.1210526315789474</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02352941176470588</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1176470588235294</v>
+        <v>0.1210526315789474</v>
       </c>
       <c r="R9">
-        <v>0.06470588235294118</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="S9">
-        <v>0.4764705882352941</v>
+        <v>0.4842105263157895</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1417525773195876</v>
+        <v>0.1345076060848679</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03264604810996564</v>
+        <v>0.03282626100880705</v>
       </c>
       <c r="E10">
-        <v>0.001718213058419244</v>
+        <v>0.001601281024819856</v>
       </c>
       <c r="F10">
-        <v>0.07216494845360824</v>
+        <v>0.07205764611689351</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09450171821305842</v>
+        <v>0.0976781425140112</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02663230240549828</v>
+        <v>0.02562049639711769</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1898625429553265</v>
+        <v>0.1929543634907926</v>
       </c>
       <c r="R10">
-        <v>0.06701030927835051</v>
+        <v>0.06805444355484387</v>
       </c>
       <c r="S10">
-        <v>0.3737113402061856</v>
+        <v>0.3746997598078463</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1678321678321678</v>
+        <v>0.1725239616613418</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09090909090909091</v>
+        <v>0.08626198083067092</v>
       </c>
       <c r="K11">
-        <v>0.1993006993006993</v>
+        <v>0.194888178913738</v>
       </c>
       <c r="L11">
-        <v>0.5314685314685315</v>
+        <v>0.5335463258785943</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01048951048951049</v>
+        <v>0.01277955271565495</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7051282051282052</v>
+        <v>0.7251461988304093</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1987179487179487</v>
+        <v>0.1871345029239766</v>
       </c>
       <c r="K12">
-        <v>0.00641025641025641</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="L12">
-        <v>0.02564102564102564</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0641025641025641</v>
+        <v>0.05847953216374269</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6222222222222222</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3333333333333333</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04444444444444445</v>
+        <v>0.04081632653061224</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01680672268907563</v>
+        <v>0.01976284584980237</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.134453781512605</v>
+        <v>0.1343873517786561</v>
       </c>
       <c r="I15">
-        <v>0.05882352941176471</v>
+        <v>0.05928853754940711</v>
       </c>
       <c r="J15">
-        <v>0.3571428571428572</v>
+        <v>0.3517786561264822</v>
       </c>
       <c r="K15">
-        <v>0.06302521008403361</v>
+        <v>0.06324110671936758</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004201680672268907</v>
+        <v>0.007905138339920948</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06722689075630252</v>
+        <v>0.06719367588932806</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2983193277310924</v>
+        <v>0.2964426877470356</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0198019801980198</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1237623762376238</v>
+        <v>0.1214953271028037</v>
       </c>
       <c r="I16">
-        <v>0.0891089108910891</v>
+        <v>0.102803738317757</v>
       </c>
       <c r="J16">
-        <v>0.405940594059406</v>
+        <v>0.411214953271028</v>
       </c>
       <c r="K16">
-        <v>0.1089108910891089</v>
+        <v>0.102803738317757</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0396039603960396</v>
+        <v>0.04205607476635514</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06930693069306931</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1435643564356436</v>
+        <v>0.1355140186915888</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02247191011235955</v>
+        <v>0.02051282051282051</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1685393258426966</v>
+        <v>0.1743589743589744</v>
       </c>
       <c r="I17">
-        <v>0.1067415730337079</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="J17">
-        <v>0.3876404494382023</v>
+        <v>0.3743589743589744</v>
       </c>
       <c r="K17">
-        <v>0.09550561797752809</v>
+        <v>0.09743589743589744</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02528089887640449</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="N17">
-        <v>0.002808988764044944</v>
+        <v>0.002564102564102564</v>
       </c>
       <c r="O17">
-        <v>0.06460674157303371</v>
+        <v>0.06923076923076923</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1264044943820225</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1390728476821192</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="I18">
-        <v>0.09271523178807947</v>
+        <v>0.09036144578313253</v>
       </c>
       <c r="J18">
-        <v>0.4834437086092715</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="K18">
-        <v>0.1258278145695364</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006622516556291391</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05298013245033113</v>
+        <v>0.05421686746987952</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09933774834437085</v>
+        <v>0.1024096385542169</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02289452166802943</v>
+        <v>0.021986353297953</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2035977105478332</v>
+        <v>0.2031842304776346</v>
       </c>
       <c r="I19">
-        <v>0.07113654946852004</v>
+        <v>0.07505686125852919</v>
       </c>
       <c r="J19">
-        <v>0.3802125919869174</v>
+        <v>0.3805913570887036</v>
       </c>
       <c r="K19">
-        <v>0.1120196238757155</v>
+        <v>0.1137225170583776</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02207686017988553</v>
+        <v>0.02122820318423048</v>
       </c>
       <c r="N19">
-        <v>0.0008176614881439084</v>
+        <v>0.0007581501137225171</v>
       </c>
       <c r="O19">
-        <v>0.07686017988552739</v>
+        <v>0.07505686125852919</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1103843008994276</v>
+        <v>0.1084154662623199</v>
       </c>
     </row>
   </sheetData>
